--- a/outputs/quarterly_results.xlsx
+++ b/outputs/quarterly_results.xlsx
@@ -515,7 +515,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Generated: 2026-01-16 16:51:15</t>
+          <t>Generated: 2026-01-16 17:03:41</t>
         </is>
       </c>
     </row>

--- a/outputs/quarterly_results.xlsx
+++ b/outputs/quarterly_results.xlsx
@@ -515,14 +515,14 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Generated: 2026-01-16 17:03:41</t>
+          <t>Generated: 2026-01-26 13:57:27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Period: 2018-03-31 to 2022-12-31</t>
+          <t>Period: 12/31/2018 to 9/30/2022</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -595,7 +595,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -639,10 +639,10 @@
         <v>42</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>54.95</v>
+        <v>57.45</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -682,7 +682,7 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -697,10 +697,10 @@
         <v>42</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54.95</v>
+        <v>57.45</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
@@ -723,24 +723,24 @@
         <v>60</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
+        <v>63</v>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -769,7 +769,7 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -813,10 +813,10 @@
         <v>42</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54.95</v>
+        <v>57.45</v>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -900,10 +900,10 @@
         <v>42</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>57.45</v>
+        <v>54.95</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -929,10 +929,10 @@
         <v>42</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>57.45</v>
+        <v>54.95</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1030,7 +1030,7 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1088,7 +1088,7 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -1103,10 +1103,10 @@
         <v>42</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>57.45</v>
+        <v>54.95</v>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1146,7 +1146,7 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1175,7 +1175,7 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1216,13 +1216,13 @@
         <v>60</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="G28" s="6" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1245,13 +1245,13 @@
         <v>60</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52.5</v>
+        <v>55.3</v>
       </c>
       <c r="G29" s="6" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1274,13 +1274,13 @@
         <v>60</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52.5</v>
+        <v>57.75</v>
       </c>
       <c r="G30" s="6" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1320,7 +1320,7 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -1349,7 +1349,7 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -1407,7 +1407,7 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1436,7 +1436,7 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -1448,13 +1448,13 @@
         <v>60</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="G36" s="6" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1494,7 +1494,7 @@
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -1506,13 +1506,13 @@
         <v>60</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>52.5</v>
+        <v>55.3</v>
       </c>
       <c r="G38" s="6" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1564,13 +1564,13 @@
         <v>60</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>52.5</v>
+        <v>55.3</v>
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -1610,7 +1610,7 @@
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1622,13 +1622,13 @@
         <v>60</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="G42" s="6" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -1680,13 +1680,13 @@
         <v>60</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -1709,13 +1709,13 @@
         <v>60</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>57.75</v>
+        <v>55.3</v>
       </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -1738,13 +1738,13 @@
         <v>60</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>73</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>56.95</v>
+        <v>59.75</v>
       </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -1784,7 +1784,7 @@
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -1854,13 +1854,13 @@
         <v>60</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>73</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>56.95</v>
+        <v>59.75</v>
       </c>
       <c r="G50" s="6" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -1886,10 +1886,10 @@
         <v>42</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>59.45</v>
+        <v>56.95</v>
       </c>
       <c r="G51" s="6" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -1915,10 +1915,10 @@
         <v>42</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>59.45</v>
+        <v>56.95</v>
       </c>
       <c r="G52" s="6" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -1944,10 +1944,10 @@
         <v>42</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>59.45</v>
+        <v>56.95</v>
       </c>
       <c r="G53" s="6" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -1987,7 +1987,7 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -1999,13 +1999,13 @@
         <v>60</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>73</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>56.95</v>
+        <v>59.75</v>
       </c>
       <c r="G55" s="6" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -2031,10 +2031,10 @@
         <v>42</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>56.95</v>
+        <v>59.45</v>
       </c>
       <c r="G56" s="6" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -2060,10 +2060,10 @@
         <v>42</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>56.95</v>
+        <v>59.45</v>
       </c>
       <c r="G57" s="6" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -2103,7 +2103,7 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -2132,7 +2132,7 @@
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -2161,7 +2161,7 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -2173,13 +2173,13 @@
         <v>60</v>
       </c>
       <c r="D61" s="5" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E61" s="5" t="n">
         <v>73</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>59.75</v>
+        <v>56.95</v>
       </c>
       <c r="G61" s="6" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -2202,13 +2202,13 @@
         <v>60</v>
       </c>
       <c r="D62" s="5" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>59.75</v>
+        <v>59.45</v>
       </c>
       <c r="G62" s="6" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -2231,13 +2231,13 @@
         <v>60</v>
       </c>
       <c r="D63" s="5" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E63" s="5" t="n">
         <v>73</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>59.75</v>
+        <v>56.95</v>
       </c>
       <c r="G63" s="6" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -2277,7 +2277,7 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -2306,7 +2306,7 @@
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
@@ -2321,10 +2321,10 @@
         <v>47</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>52.45</v>
+        <v>54.95</v>
       </c>
       <c r="G66" s="6" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
@@ -2347,24 +2347,24 @@
         <v>60</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E67" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="G67" s="6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
+        <v>60.2</v>
+      </c>
+      <c r="G67" s="7" t="inlineStr">
+        <is>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
@@ -2376,24 +2376,24 @@
         <v>60</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="G68" s="6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
+        <v>60.2</v>
+      </c>
+      <c r="G68" s="7" t="inlineStr">
+        <is>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -2405,24 +2405,24 @@
         <v>60</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="G69" s="6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
+        <v>60.2</v>
+      </c>
+      <c r="G69" s="7" t="inlineStr">
+        <is>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
@@ -2434,24 +2434,24 @@
         <v>60</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E70" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="G70" s="6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
+        <v>60.2</v>
+      </c>
+      <c r="G70" s="7" t="inlineStr">
+        <is>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
@@ -2463,24 +2463,24 @@
         <v>60</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="G71" s="7" t="inlineStr">
-        <is>
-          <t>HIGH</t>
+        <v>52.45</v>
+      </c>
+      <c r="G71" s="6" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -2492,24 +2492,24 @@
         <v>60</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E72" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="G72" s="7" t="inlineStr">
-        <is>
-          <t>HIGH</t>
+        <v>56.7</v>
+      </c>
+      <c r="G72" s="6" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -2538,7 +2538,7 @@
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -2567,7 +2567,7 @@
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -2608,13 +2608,13 @@
         <v>60</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>57.7</v>
+        <v>56.7</v>
       </c>
       <c r="G76" s="6" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -2654,7 +2654,7 @@
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -2683,7 +2683,7 @@
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -2712,7 +2712,7 @@
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
@@ -2741,7 +2741,7 @@
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -2753,24 +2753,24 @@
         <v>60</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="G81" s="7" t="inlineStr">
-        <is>
-          <t>HIGH</t>
+        <v>54.95</v>
+      </c>
+      <c r="G81" s="6" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -2799,7 +2799,7 @@
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -2814,21 +2814,21 @@
         <v>57</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="G83" s="7" t="inlineStr">
-        <is>
-          <t>HIGH</t>
+        <v>57.7</v>
+      </c>
+      <c r="G83" s="6" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -2857,7 +2857,7 @@
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -2886,7 +2886,7 @@
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -2915,7 +2915,7 @@
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -2973,7 +2973,7 @@
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -3002,7 +3002,7 @@
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
@@ -3017,10 +3017,10 @@
         <v>50</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>55.25</v>
+        <v>57.75</v>
       </c>
       <c r="G90" s="6" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -3060,7 +3060,7 @@
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -3089,7 +3089,7 @@
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -3104,10 +3104,10 @@
         <v>50</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>55.25</v>
+        <v>57.75</v>
       </c>
       <c r="G93" s="6" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
@@ -3133,10 +3133,10 @@
         <v>50</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>57.75</v>
+        <v>55.25</v>
       </c>
       <c r="G94" s="6" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
@@ -3176,7 +3176,7 @@
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
@@ -3205,7 +3205,7 @@
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
@@ -3234,7 +3234,7 @@
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -3263,7 +3263,7 @@
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
@@ -3321,7 +3321,7 @@
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
@@ -3350,7 +3350,7 @@
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
@@ -3379,7 +3379,7 @@
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
@@ -3408,7 +3408,7 @@
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
@@ -3423,10 +3423,10 @@
         <v>50</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>57.75</v>
+        <v>55.25</v>
       </c>
       <c r="G104" s="6" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
@@ -3466,7 +3466,7 @@
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
@@ -3478,13 +3478,13 @@
         <v>60</v>
       </c>
       <c r="D106" s="5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E106" s="5" t="n">
         <v>73</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>54.5</v>
+        <v>56.95</v>
       </c>
       <c r="G106" s="6" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
@@ -3507,13 +3507,13 @@
         <v>60</v>
       </c>
       <c r="D107" s="5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E107" s="5" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F107" s="5" t="n">
-        <v>54.5</v>
+        <v>58.7</v>
       </c>
       <c r="G107" s="6" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
     <row r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
@@ -3553,7 +3553,7 @@
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
@@ -3568,10 +3568,10 @@
         <v>42</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>56.95</v>
+        <v>58.7</v>
       </c>
       <c r="G109" s="6" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
     <row r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
@@ -3597,10 +3597,10 @@
         <v>42</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>56.95</v>
+        <v>58.7</v>
       </c>
       <c r="G110" s="6" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
@@ -3623,13 +3623,13 @@
         <v>60</v>
       </c>
       <c r="D111" s="5" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>58.7</v>
+        <v>54.5</v>
       </c>
       <c r="G111" s="6" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
@@ -3652,13 +3652,13 @@
         <v>60</v>
       </c>
       <c r="D112" s="5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>56.25</v>
+        <v>56.95</v>
       </c>
       <c r="G112" s="6" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
@@ -3698,7 +3698,7 @@
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
@@ -3713,10 +3713,10 @@
         <v>42</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>58.7</v>
+        <v>56.95</v>
       </c>
       <c r="G114" s="6" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
@@ -3739,13 +3739,13 @@
         <v>60</v>
       </c>
       <c r="D115" s="5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E115" s="5" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F115" s="5" t="n">
-        <v>54.5</v>
+        <v>58.7</v>
       </c>
       <c r="G115" s="6" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
     <row r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
@@ -3768,13 +3768,13 @@
         <v>60</v>
       </c>
       <c r="D116" s="5" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E116" s="5" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F116" s="5" t="n">
-        <v>58.7</v>
+        <v>54.5</v>
       </c>
       <c r="G116" s="6" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
@@ -3800,10 +3800,10 @@
         <v>42</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F117" s="5" t="n">
-        <v>56.95</v>
+        <v>58.7</v>
       </c>
       <c r="G117" s="6" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
@@ -3826,13 +3826,13 @@
         <v>60</v>
       </c>
       <c r="D118" s="5" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E118" s="5" t="n">
         <v>73</v>
       </c>
       <c r="F118" s="5" t="n">
-        <v>56.95</v>
+        <v>54.5</v>
       </c>
       <c r="G118" s="6" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
@@ -3872,7 +3872,7 @@
     <row r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
@@ -3887,10 +3887,10 @@
         <v>42</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F120" s="5" t="n">
-        <v>56.2</v>
+        <v>58.7</v>
       </c>
       <c r="G120" s="6" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
@@ -3916,10 +3916,10 @@
         <v>42</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F121" s="5" t="n">
-        <v>58.7</v>
+        <v>56.95</v>
       </c>
       <c r="G121" s="6" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
     <row r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
@@ -3942,13 +3942,13 @@
         <v>60</v>
       </c>
       <c r="D122" s="5" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E122" s="5" t="n">
         <v>80</v>
       </c>
       <c r="F122" s="5" t="n">
-        <v>58.7</v>
+        <v>56.25</v>
       </c>
       <c r="G122" s="6" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
@@ -4003,10 +4003,10 @@
         <v>42</v>
       </c>
       <c r="E124" s="5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F124" s="5" t="n">
-        <v>58.7</v>
+        <v>56.2</v>
       </c>
       <c r="G124" s="6" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
@@ -4046,7 +4046,7 @@
     <row r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
@@ -4075,7 +4075,7 @@
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
@@ -4090,10 +4090,10 @@
         <v>25</v>
       </c>
       <c r="E127" s="5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F127" s="5" t="n">
-        <v>46.5</v>
+        <v>49</v>
       </c>
       <c r="G127" s="6" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
@@ -4133,7 +4133,7 @@
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
@@ -4174,13 +4174,13 @@
         <v>60</v>
       </c>
       <c r="D130" s="5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E130" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F130" s="5" t="n">
-        <v>49</v>
+        <v>51.45</v>
       </c>
       <c r="G130" s="6" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
@@ -4235,10 +4235,10 @@
         <v>25</v>
       </c>
       <c r="E132" s="5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F132" s="5" t="n">
-        <v>46.5</v>
+        <v>49</v>
       </c>
       <c r="G132" s="6" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
@@ -4264,10 +4264,10 @@
         <v>25</v>
       </c>
       <c r="E133" s="5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F133" s="5" t="n">
-        <v>49</v>
+        <v>46.5</v>
       </c>
       <c r="G133" s="6" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
     <row r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
@@ -4293,10 +4293,10 @@
         <v>25</v>
       </c>
       <c r="E134" s="5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F134" s="5" t="n">
-        <v>46.5</v>
+        <v>49</v>
       </c>
       <c r="G134" s="6" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
@@ -4336,7 +4336,7 @@
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
@@ -4351,10 +4351,10 @@
         <v>25</v>
       </c>
       <c r="E136" s="5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F136" s="5" t="n">
-        <v>49</v>
+        <v>46.5</v>
       </c>
       <c r="G136" s="6" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
@@ -4394,7 +4394,7 @@
     <row r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
@@ -4423,7 +4423,7 @@
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
@@ -4452,7 +4452,7 @@
     <row r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
@@ -4464,13 +4464,13 @@
         <v>60</v>
       </c>
       <c r="D140" s="5" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E140" s="5" t="n">
         <v>65</v>
       </c>
       <c r="F140" s="5" t="n">
-        <v>51.45</v>
+        <v>49</v>
       </c>
       <c r="G140" s="6" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
@@ -4525,10 +4525,10 @@
         <v>25</v>
       </c>
       <c r="E142" s="5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F142" s="5" t="n">
-        <v>49</v>
+        <v>46.5</v>
       </c>
       <c r="G142" s="6" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
@@ -4568,7 +4568,7 @@
     <row r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
@@ -4597,7 +4597,7 @@
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
@@ -4626,7 +4626,7 @@
     <row r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
@@ -4655,7 +4655,7 @@
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
@@ -4670,10 +4670,10 @@
         <v>25</v>
       </c>
       <c r="E147" s="5" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F147" s="5" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G147" s="6" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
     <row r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
@@ -4699,10 +4699,10 @@
         <v>25</v>
       </c>
       <c r="E148" s="5" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F148" s="5" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G148" s="6" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
@@ -4728,10 +4728,10 @@
         <v>25</v>
       </c>
       <c r="E149" s="5" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F149" s="5" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G149" s="6" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
     <row r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
@@ -4757,10 +4757,10 @@
         <v>25</v>
       </c>
       <c r="E150" s="5" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F150" s="5" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G150" s="6" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
@@ -4786,10 +4786,10 @@
         <v>25</v>
       </c>
       <c r="E151" s="5" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F151" s="5" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G151" s="6" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
     <row r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
@@ -4815,10 +4815,10 @@
         <v>25</v>
       </c>
       <c r="E152" s="5" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F152" s="5" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G152" s="6" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
@@ -4858,7 +4858,7 @@
     <row r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
@@ -4887,7 +4887,7 @@
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
@@ -4916,7 +4916,7 @@
     <row r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
@@ -4931,10 +4931,10 @@
         <v>25</v>
       </c>
       <c r="E156" s="5" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F156" s="5" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G156" s="6" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
@@ -4974,7 +4974,7 @@
     <row r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
@@ -5003,7 +5003,7 @@
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
@@ -5032,7 +5032,7 @@
     <row r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
@@ -5061,7 +5061,7 @@
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
@@ -5076,10 +5076,10 @@
         <v>25</v>
       </c>
       <c r="E161" s="5" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F161" s="5" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G161" s="6" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
     <row r="162">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
@@ -5119,7 +5119,7 @@
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
@@ -5148,7 +5148,7 @@
     <row r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
@@ -5177,7 +5177,7 @@
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
@@ -5206,7 +5206,7 @@
     <row r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
@@ -5221,10 +5221,10 @@
         <v>57</v>
       </c>
       <c r="E166" s="5" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F166" s="5" t="n">
-        <v>58.45</v>
+        <v>57.95</v>
       </c>
       <c r="G166" s="6" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
@@ -5250,21 +5250,21 @@
         <v>57</v>
       </c>
       <c r="E167" s="5" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F167" s="5" t="n">
-        <v>57.95</v>
-      </c>
-      <c r="G167" s="6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
+        <v>60.45</v>
+      </c>
+      <c r="G167" s="7" t="inlineStr">
+        <is>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
@@ -5276,24 +5276,24 @@
         <v>60</v>
       </c>
       <c r="D168" s="5" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E168" s="5" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F168" s="5" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="G168" s="6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
+        <v>60.45</v>
+      </c>
+      <c r="G168" s="7" t="inlineStr">
+        <is>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
@@ -5305,13 +5305,13 @@
         <v>60</v>
       </c>
       <c r="D169" s="5" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E169" s="5" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F169" s="5" t="n">
-        <v>57.95</v>
+        <v>56.95</v>
       </c>
       <c r="G169" s="6" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
     <row r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
@@ -5337,10 +5337,10 @@
         <v>57</v>
       </c>
       <c r="E170" s="5" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F170" s="5" t="n">
-        <v>57.95</v>
+        <v>59.7</v>
       </c>
       <c r="G170" s="6" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
@@ -5363,13 +5363,13 @@
         <v>60</v>
       </c>
       <c r="D171" s="5" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E171" s="5" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F171" s="5" t="n">
-        <v>58</v>
+        <v>58.45</v>
       </c>
       <c r="G171" s="6" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
     <row r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
@@ -5392,13 +5392,13 @@
         <v>60</v>
       </c>
       <c r="D172" s="5" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E172" s="5" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F172" s="5" t="n">
-        <v>58</v>
+        <v>57.95</v>
       </c>
       <c r="G172" s="6" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
@@ -5438,7 +5438,7 @@
     <row r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
@@ -5453,21 +5453,21 @@
         <v>57</v>
       </c>
       <c r="E174" s="5" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F174" s="5" t="n">
-        <v>60.45</v>
-      </c>
-      <c r="G174" s="7" t="inlineStr">
-        <is>
-          <t>HIGH</t>
+        <v>57.95</v>
+      </c>
+      <c r="G174" s="6" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
@@ -5479,13 +5479,13 @@
         <v>60</v>
       </c>
       <c r="D175" s="5" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E175" s="5" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F175" s="5" t="n">
-        <v>58</v>
+        <v>54.45</v>
       </c>
       <c r="G175" s="6" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
@@ -5508,13 +5508,13 @@
         <v>60</v>
       </c>
       <c r="D176" s="5" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E176" s="5" t="n">
         <v>56</v>
       </c>
       <c r="F176" s="5" t="n">
-        <v>55.5</v>
+        <v>57.95</v>
       </c>
       <c r="G176" s="6" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
@@ -5537,24 +5537,24 @@
         <v>60</v>
       </c>
       <c r="D177" s="5" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E177" s="5" t="n">
         <v>66</v>
       </c>
       <c r="F177" s="5" t="n">
-        <v>60.45</v>
-      </c>
-      <c r="G177" s="7" t="inlineStr">
-        <is>
-          <t>HIGH</t>
+        <v>58</v>
+      </c>
+      <c r="G177" s="6" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
@@ -5566,13 +5566,13 @@
         <v>60</v>
       </c>
       <c r="D178" s="5" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E178" s="5" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F178" s="5" t="n">
-        <v>57.95</v>
+        <v>58</v>
       </c>
       <c r="G178" s="6" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
@@ -5612,7 +5612,7 @@
     <row r="180">
       <c r="A180" s="4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
@@ -5641,7 +5641,7 @@
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
@@ -5653,13 +5653,13 @@
         <v>60</v>
       </c>
       <c r="D181" s="5" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E181" s="5" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F181" s="5" t="n">
-        <v>56.95</v>
+        <v>55.5</v>
       </c>
       <c r="G181" s="6" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
     <row r="182">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
@@ -5682,13 +5682,13 @@
         <v>60</v>
       </c>
       <c r="D182" s="5" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E182" s="5" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F182" s="5" t="n">
-        <v>54.45</v>
+        <v>58</v>
       </c>
       <c r="G182" s="6" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
@@ -5711,24 +5711,24 @@
         <v>60</v>
       </c>
       <c r="D183" s="5" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E183" s="5" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F183" s="5" t="n">
-        <v>60.45</v>
-      </c>
-      <c r="G183" s="7" t="inlineStr">
-        <is>
-          <t>HIGH</t>
+        <v>55.5</v>
+      </c>
+      <c r="G183" s="6" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="4" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
@@ -5740,24 +5740,24 @@
         <v>60</v>
       </c>
       <c r="D184" s="5" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E184" s="5" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F184" s="5" t="n">
-        <v>59.75</v>
-      </c>
-      <c r="G184" s="6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
+        <v>60.45</v>
+      </c>
+      <c r="G184" s="7" t="inlineStr">
+        <is>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
@@ -5769,13 +5769,13 @@
         <v>60</v>
       </c>
       <c r="D185" s="5" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E185" s="5" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F185" s="5" t="n">
-        <v>59.7</v>
+        <v>59.75</v>
       </c>
       <c r="G185" s="6" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
     <row r="186">
       <c r="A186" s="4" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B186" s="4" t="inlineStr">
@@ -5801,10 +5801,10 @@
         <v>50</v>
       </c>
       <c r="E186" s="5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F186" s="5" t="n">
-        <v>57.75</v>
+        <v>55.25</v>
       </c>
       <c r="G186" s="6" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
@@ -5830,10 +5830,10 @@
         <v>50</v>
       </c>
       <c r="E187" s="5" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F187" s="5" t="n">
-        <v>59.75</v>
+        <v>57.25</v>
       </c>
       <c r="G187" s="6" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
     <row r="188">
       <c r="A188" s="4" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B188" s="4" t="inlineStr">
@@ -5859,10 +5859,10 @@
         <v>50</v>
       </c>
       <c r="E188" s="5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F188" s="5" t="n">
-        <v>55.25</v>
+        <v>57.75</v>
       </c>
       <c r="G188" s="6" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
@@ -5888,10 +5888,10 @@
         <v>50</v>
       </c>
       <c r="E189" s="5" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F189" s="5" t="n">
-        <v>55.25</v>
+        <v>59.75</v>
       </c>
       <c r="G189" s="6" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
     <row r="190">
       <c r="A190" s="4" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
@@ -5917,21 +5917,21 @@
         <v>50</v>
       </c>
       <c r="E190" s="5" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F190" s="5" t="n">
-        <v>57.25</v>
-      </c>
-      <c r="G190" s="6" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
+        <v>61.5</v>
+      </c>
+      <c r="G190" s="7" t="inlineStr">
+        <is>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
@@ -5946,10 +5946,10 @@
         <v>50</v>
       </c>
       <c r="E191" s="5" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F191" s="5" t="n">
-        <v>57.25</v>
+        <v>57.75</v>
       </c>
       <c r="G191" s="6" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
     <row r="192">
       <c r="A192" s="4" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
@@ -5989,7 +5989,7 @@
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
@@ -6018,7 +6018,7 @@
     <row r="194">
       <c r="A194" s="4" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
@@ -6033,10 +6033,10 @@
         <v>50</v>
       </c>
       <c r="E194" s="5" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F194" s="5" t="n">
-        <v>57.25</v>
+        <v>55.25</v>
       </c>
       <c r="G194" s="6" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
@@ -6062,10 +6062,10 @@
         <v>50</v>
       </c>
       <c r="E195" s="5" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F195" s="5" t="n">
-        <v>57.25</v>
+        <v>59.75</v>
       </c>
       <c r="G195" s="6" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
     <row r="196">
       <c r="A196" s="4" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B196" s="4" t="inlineStr">
@@ -6091,10 +6091,10 @@
         <v>50</v>
       </c>
       <c r="E196" s="5" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F196" s="5" t="n">
-        <v>55.25</v>
+        <v>59.75</v>
       </c>
       <c r="G196" s="6" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
@@ -6120,10 +6120,10 @@
         <v>50</v>
       </c>
       <c r="E197" s="5" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F197" s="5" t="n">
-        <v>57.75</v>
+        <v>57.25</v>
       </c>
       <c r="G197" s="6" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
     <row r="198">
       <c r="A198" s="4" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B198" s="4" t="inlineStr">
@@ -6149,10 +6149,10 @@
         <v>50</v>
       </c>
       <c r="E198" s="5" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F198" s="5" t="n">
-        <v>55.25</v>
+        <v>57.25</v>
       </c>
       <c r="G198" s="6" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
@@ -6192,7 +6192,7 @@
     <row r="200">
       <c r="A200" s="4" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B200" s="4" t="inlineStr">
@@ -6221,7 +6221,7 @@
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
@@ -6236,10 +6236,10 @@
         <v>50</v>
       </c>
       <c r="E201" s="5" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F201" s="5" t="n">
-        <v>59.75</v>
+        <v>55.25</v>
       </c>
       <c r="G201" s="6" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
     <row r="202">
       <c r="A202" s="4" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B202" s="4" t="inlineStr">
@@ -6265,10 +6265,10 @@
         <v>50</v>
       </c>
       <c r="E202" s="5" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F202" s="5" t="n">
-        <v>59.75</v>
+        <v>57.25</v>
       </c>
       <c r="G202" s="6" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
@@ -6294,10 +6294,10 @@
         <v>50</v>
       </c>
       <c r="E203" s="5" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F203" s="5" t="n">
-        <v>59.75</v>
+        <v>55.25</v>
       </c>
       <c r="G203" s="6" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
     <row r="204">
       <c r="A204" s="4" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B204" s="4" t="inlineStr">
@@ -6323,21 +6323,21 @@
         <v>50</v>
       </c>
       <c r="E204" s="5" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F204" s="5" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="G204" s="7" t="inlineStr">
-        <is>
-          <t>HIGH</t>
+        <v>59.75</v>
+      </c>
+      <c r="G204" s="6" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
